--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsi\Notes\ET@HTW\Elektrotechnik 1\Labs\ET10\scripts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsi\Notes\ET@HTW\Elektrotechnik 1\Labs\ET10\scripts\Sternnetzwerke-Graphing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C3F193-3AA6-4D36-A1C6-04CCB4AB889F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C42685-3468-44AD-982A-B9703F7D17D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Currents" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,25 @@
     <sheet name="Voltages" sheetId="4" r:id="rId4"/>
     <sheet name="UNN" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
   <si>
     <t>Beschreibung</t>
   </si>
@@ -75,13 +88,22 @@
   </si>
   <si>
     <t>Strom INN</t>
+  </si>
+  <si>
+    <t>Szenario 6</t>
+  </si>
+  <si>
+    <t>Szenario 7</t>
+  </si>
+  <si>
+    <t>Szenario 8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +115,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -442,19 +470,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,42 +501,124 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>29.81</v>
+      </c>
+      <c r="C2">
+        <v>33.75</v>
+      </c>
+      <c r="D2">
+        <v>29.75</v>
+      </c>
+      <c r="E2">
+        <v>44.09</v>
+      </c>
+      <c r="F2">
+        <v>29.76</v>
+      </c>
+      <c r="G2">
+        <v>55.06</v>
+      </c>
+      <c r="H2">
+        <v>29.36</v>
+      </c>
+      <c r="I2">
+        <v>32.840000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>29.54</v>
+      </c>
+      <c r="C3">
+        <v>33.69</v>
+      </c>
+      <c r="D3">
+        <v>29.28</v>
+      </c>
+      <c r="E3">
+        <v>12.28</v>
+      </c>
+      <c r="F3">
+        <v>53.8</v>
+      </c>
+      <c r="G3">
+        <v>27.84</v>
+      </c>
+      <c r="H3">
+        <v>30.12</v>
+      </c>
+      <c r="I3">
+        <v>81.099999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
+      <c r="B4">
+        <v>49.9</v>
+      </c>
+      <c r="C4">
+        <v>37.83</v>
+      </c>
+      <c r="D4">
+        <v>25.63</v>
+      </c>
+      <c r="E4">
+        <v>34.729999999999997</v>
+      </c>
+      <c r="F4">
+        <v>25.6</v>
+      </c>
+      <c r="G4">
+        <v>35.4</v>
+      </c>
+      <c r="H4">
+        <v>46.8</v>
+      </c>
+      <c r="I4">
+        <v>88.8</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F4"/>
+      <selection activeCell="F1" sqref="F1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,42 +637,124 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>5.67</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>-11.64</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>-11.03</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>52.08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>120</v>
+      </c>
+      <c r="C3">
+        <v>114.17</v>
+      </c>
+      <c r="D3">
+        <v>120</v>
+      </c>
+      <c r="E3">
+        <v>116.28</v>
+      </c>
+      <c r="F3">
+        <v>210</v>
+      </c>
+      <c r="G3">
+        <v>196.12</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3">
+        <v>37.879999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
+      <c r="B4">
+        <v>-120</v>
+      </c>
+      <c r="C4">
+        <v>-119.83</v>
+      </c>
+      <c r="D4">
+        <v>-210</v>
+      </c>
+      <c r="E4">
+        <v>-195.4</v>
+      </c>
+      <c r="F4">
+        <v>-210</v>
+      </c>
+      <c r="G4">
+        <v>-188.88</v>
+      </c>
+      <c r="H4">
+        <v>-30</v>
+      </c>
+      <c r="I4">
+        <v>-72.849999999999994</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="F1" sqref="F1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,32 +773,54 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
+      <c r="B2">
+        <v>26.65</v>
+      </c>
+      <c r="D2">
+        <v>39.93</v>
+      </c>
+      <c r="F2">
+        <v>48</v>
+      </c>
+      <c r="H2">
+        <v>87.7</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F4"/>
+      <selection activeCell="F1" sqref="F1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,42 +839,124 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>29.75</v>
+      </c>
+      <c r="C2">
+        <v>33.67</v>
+      </c>
+      <c r="D2">
+        <v>29.6</v>
+      </c>
+      <c r="E2">
+        <v>43.8</v>
+      </c>
+      <c r="F2">
+        <v>29.73</v>
+      </c>
+      <c r="G2">
+        <v>54.7</v>
+      </c>
+      <c r="H2">
+        <v>29.26</v>
+      </c>
+      <c r="I2">
+        <v>32.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>29.3</v>
+      </c>
+      <c r="C3">
+        <v>33.36</v>
+      </c>
+      <c r="D3">
+        <v>28.98</v>
+      </c>
+      <c r="E3">
+        <v>12.15</v>
+      </c>
+      <c r="F3">
+        <v>29.04</v>
+      </c>
+      <c r="G3">
+        <v>14.9</v>
+      </c>
+      <c r="H3">
+        <v>29.43</v>
+      </c>
+      <c r="I3">
+        <v>78.900000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
+      <c r="B4">
+        <v>28.35</v>
+      </c>
+      <c r="C4">
+        <v>21.5</v>
+      </c>
+      <c r="D4">
+        <v>28.65</v>
+      </c>
+      <c r="E4">
+        <v>38.18</v>
+      </c>
+      <c r="F4">
+        <v>28.45</v>
+      </c>
+      <c r="G4">
+        <v>38.96</v>
+      </c>
+      <c r="H4">
+        <v>28.57</v>
+      </c>
+      <c r="I4">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,13 +975,35 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="C2">
+        <v>7.02</v>
+      </c>
+      <c r="E2">
+        <v>18.37</v>
+      </c>
+      <c r="G2">
+        <v>27.25</v>
+      </c>
+      <c r="I2">
+        <v>50.5</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>